--- a/ЗАВОДЫ/МИРАТОРГ/2025/05,25/19,05,25 Мираторг ЗПФ Ташкент/дв 19,05,25 тшрсч мртрг зпф от Лыгина.xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/05,25/19,05,25 Мираторг ЗПФ Ташкент/дв 19,05,25 тшрсч мртрг зпф от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\19,05,25 Мираторг ЗПФ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\05,25\19,05,25 Мираторг ЗПФ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF9468-BACF-4F02-9576-E05C758705C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526F5D6-4BA8-4537-9727-9D7F9EA514B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -284,6 +284,23 @@
   <si>
     <t>23,05,</t>
   </si>
+  <si>
+    <t>Просьба Шуваловой убрать 12 шт из заказа</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">нет в бланке для заказа </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/ Просьба Шуваловой убрать 12 шт из заказа</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -414,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -435,6 +452,7 @@
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -744,7 +762,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1129,7 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
@@ -1163,7 +1181,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="4">
         <f>SUM(AF6:AF500)</f>
-        <v>358.49999999999994</v>
+        <v>356.09999999999997</v>
       </c>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -3675,16 +3693,18 @@
         <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
-      <c r="P30" s="12">
-        <v>12</v>
+      <c r="P30" s="20">
+        <v>0</v>
       </c>
       <c r="Q30" s="5">
         <v>5</v>
       </c>
-      <c r="R30" s="1"/>
+      <c r="R30" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="S30" s="1">
         <f t="shared" si="4"/>
-        <v>11.206896551724139</v>
+        <v>9.1379310344827598</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="5"/>
@@ -3721,11 +3741,11 @@
         <v>0</v>
       </c>
       <c r="AE30" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AF30" s="1">
         <f t="shared" si="6"/>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
